--- a/BKC01D.xlsx
+++ b/BKC01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="237">
   <si>
     <t/>
   </si>
@@ -656,12 +656,6 @@
   </si>
   <si>
     <t>CUSSON H&amp;BW ML&amp;G 375</t>
-  </si>
-  <si>
-    <t>20134588</t>
-  </si>
-  <si>
-    <t>JHNSON BB CRM M/RC50</t>
   </si>
   <si>
     <t>10026930</t>
@@ -1120,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F105"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3025,7 +3019,7 @@
         <v>28</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3045,7 +3039,7 @@
         <v>28</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3065,7 +3059,7 @@
         <v>28</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>5</v>
@@ -3085,10 +3079,10 @@
         <v>28</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3105,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>32</v>
@@ -3125,7 +3119,7 @@
         <v>28</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>32</v>
@@ -3145,10 +3139,10 @@
         <v>28</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,7 +3159,7 @@
         <v>28</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3185,10 +3179,10 @@
         <v>28</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3205,7 +3199,7 @@
         <v>28</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>19</v>
@@ -3225,29 +3219,9 @@
         <v>28</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F106" s="1" t="s">
         <v>43</v>
       </c>
     </row>
